--- a/example.xlsx
+++ b/example.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\OfficeBook-Inventory_v.1.0.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,10 +13,10 @@
   </bookViews>
   <sheets>
     <sheet name="Сотрудники" sheetId="1" r:id="rId1"/>
-    <sheet name="Инвентарные еденици" sheetId="2" r:id="rId2"/>
+    <sheet name="Инвентарные единицы" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Инвентарные еденици'!$A$2:$I$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Инвентарные единицы'!$A$2:$I$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Сотрудники!$A$2:$N$102</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -6786,7 +6786,7 @@
   <dimension ref="A1:I605"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
